--- a/3.Doc/Patient_import_template.xlsx
+++ b/3.Doc/Patient_import_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phan Anh\fcdc\3.Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phan Anh\FCDC_1.1\FCDC_Version1.1\3.Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,10 +86,10 @@
     <t>21/05/2021</t>
   </si>
   <si>
-    <t>0236598979</t>
-  </si>
-  <si>
-    <t>0245656545</t>
+    <t>0345656545</t>
+  </si>
+  <si>
+    <t>0356598979</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
@@ -514,7 +514,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>

--- a/3.Doc/Patient_import_template.xlsx
+++ b/3.Doc/Patient_import_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Mai Dịch</t>
   </si>
   <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
     <t>20/05/2021</t>
   </si>
   <si>
@@ -90,6 +87,12 @@
   </si>
   <si>
     <t>0356598979</t>
+  </si>
+  <si>
+    <t>Số 1 - Cầu giấy</t>
+  </si>
+  <si>
+    <t>Số 345 - Hồ tùng mậu</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,16 +488,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -502,28 +505,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/3.Doc/Patient_import_template.xlsx
+++ b/3.Doc/Patient_import_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phan Anh\FCDC_1.1\FCDC_Version1.1\3.Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_FCDC\FCDC_Version1.1\3.Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4194EEDC-D21E-453A-BC44-66CAB1A1C77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>STT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>16/08/1999</t>
+  </si>
+  <si>
+    <t>anhpqhe130956@gmail.com</t>
+  </si>
+  <si>
+    <t>23/08/1999</t>
+  </si>
+  <si>
+    <t>Số 1 - Cầu giấy</t>
+  </si>
+  <si>
+    <t>Số 345 - Hồ tùng mậu</t>
   </si>
   <si>
     <t>Họ và Tên</t>
@@ -53,52 +69,73 @@
     <t>Ngày phát hiện</t>
   </si>
   <si>
-    <t>Phan Quang Anh</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>16/08/1999</t>
-  </si>
-  <si>
-    <t>anhpqhe130956@gmail.com</t>
-  </si>
-  <si>
-    <t>Mai Dịch</t>
-  </si>
-  <si>
-    <t>20/05/2021</t>
-  </si>
-  <si>
-    <t>Lê Quang Linh</t>
-  </si>
-  <si>
-    <t>23/08/1999</t>
-  </si>
-  <si>
-    <t>linh@gmail.com</t>
-  </si>
-  <si>
-    <t>21/05/2021</t>
-  </si>
-  <si>
-    <t>0345656545</t>
-  </si>
-  <si>
-    <t>0356598979</t>
-  </si>
-  <si>
-    <t>Số 1 - Cầu giấy</t>
-  </si>
-  <si>
-    <t>Số 345 - Hồ tùng mậu</t>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Ngã Tư Sở</t>
+  </si>
+  <si>
+    <t>21/10/2021</t>
+  </si>
+  <si>
+    <t>Phan Quang Anh2</t>
+  </si>
+  <si>
+    <t>Lê Huyền Anh2</t>
+  </si>
+  <si>
+    <t>Lê Quang Tính2</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Tráng2</t>
+  </si>
+  <si>
+    <t>Trần Hiếu2</t>
+  </si>
+  <si>
+    <t>Lê Tuấn2</t>
+  </si>
+  <si>
+    <t>Trần Thị Phương2</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy Hoang2</t>
+  </si>
+  <si>
+    <t>Nguyễn lê Thoa2</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>429</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,9 +177,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -423,117 +462,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="40.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{F7878F04-8041-4B66-AE5D-4AB635ED1B50}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{14FEF286-F3F2-419A-9F2A-74EBF7A53DDC}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{D1A13E92-E29E-4185-9A64-96E20784E96C}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{1A5640CD-CF64-456D-9BD0-82CE7D4D18B8}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{1531FE0C-0B73-4D86-A3F2-114EA836D185}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{1F1A9B93-A03D-480D-86D7-B2389487881F}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{4255637E-0BE0-4E34-9588-60E04AAE17B3}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{DFE6B555-3AFE-44DB-815B-930E35C35D90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>